--- a/biology/Histoire de la zoologie et de la botanique/Louis_Joseph_Ghislain_Parmentier/Louis_Joseph_Ghislain_Parmentier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Joseph_Ghislain_Parmentier/Louis_Joseph_Ghislain_Parmentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Joseph Ghislain Parmentier, né le 9 août 1782 à Enghien, aux Pays-Bas autrichiens (actuelle Belgique), décédé le 1er avril 1847 à Bruxelles, est un botaniste et rosiériste belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Parmentier est connu pour avoir créé un jardin de plus de trois mille variétés de roses à Enghien, et créé lui-même plus de huit cents variétés, faisant de lui tout à la fois l'un des plus gros collectionneurs d'Europe, et l'un des obtenteurs de roses les plus prolifiques. C'est ce dont a voulu témoigner le monument dressé dans le parc d'Enghien en 2000.
 Parmi les variétés de cet obtenteur, dont beaucoup ont été mises au commerce par son ami gantois Louis van Houtte, on connaît 'Félicité Parmentier', 'Désirée Parmentier' (du nom de sa femme), 'Hector Parmentier' (du nom de son filleul et neveu), mais aussi la très répandue 'Cardinal de Richelieu', qui ne lui a été réattribuée que récemment, ou 'Belle Isis', dont le croisement avec 'Dainty Maid' a permis à David Austin d'obtenir en 1961 'Constance Spry', première des roses anglaises si populaires de nos jours.
@@ -547,10 +561,12 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a épousé le 4 juillet 1818 à Enghien Marie-Désirée Pletincx (1795-1868), de Lumay, dont il a eu un fils, Gustave (1819-1840), mort sans postérité.
-L'un de ses frères, Joseph Julien Ghislain Parmentier (1775-1852), horticulteur, fut également bourgmestre d'Enghien de 1800 à 1830[1], et un autre, André Joseph Ghislain Parmentier (1780-1830), émigra aux États-Unis où il fut horticulteur et paysagiste. Leur sœur, Marie Joséphine Parmentier, est la mère du politicien et poète Édouard Mary et du diplomate et artiste Benjamin Mary.
+L'un de ses frères, Joseph Julien Ghislain Parmentier (1775-1852), horticulteur, fut également bourgmestre d'Enghien de 1800 à 1830, et un autre, André Joseph Ghislain Parmentier (1780-1830), émigra aux États-Unis où il fut horticulteur et paysagiste. Leur sœur, Marie Joséphine Parmentier, est la mère du politicien et poète Édouard Mary et du diplomate et artiste Benjamin Mary.
 </t>
         </is>
       </c>
